--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="901">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="901">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31322,7 +31322,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>89</v>
@@ -31352,7 +31352,7 @@
         <v>89</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>89</v>
@@ -31367,7 +31367,7 @@
         <v>89</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>89</v>
@@ -31391,7 +31391,7 @@
         <v>89</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>89</v>
@@ -32036,7 +32036,7 @@
         <v>89</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>89</v>
@@ -32149,13 +32149,13 @@
         <v>89</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>89</v>
@@ -32164,7 +32164,7 @@
         <v>89</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>89</v>
@@ -32179,7 +32179,7 @@
         <v>89</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>89</v>
@@ -32230,7 +32230,7 @@
         <v>89</v>
       </c>
       <c r="AL13" s="5" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14">
@@ -32244,7 +32244,7 @@
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
@@ -32274,7 +32274,7 @@
         <v>89</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>89</v>
@@ -32298,7 +32298,7 @@
         <v>89</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>89</v>
@@ -32313,7 +32313,7 @@
         <v>89</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>89</v>
@@ -32393,7 +32393,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>89</v>
@@ -32723,7 +32723,7 @@
         <v>89</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>89</v>
@@ -32747,10 +32747,10 @@
         <v>89</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>89</v>
@@ -32759,7 +32759,7 @@
         <v>89</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>89</v>
@@ -32795,10 +32795,10 @@
         <v>89</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>89</v>
@@ -32807,10 +32807,10 @@
         <v>89</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="AL18" s="5" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
     </row>
     <row r="19">
@@ -32943,7 +32943,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>89</v>
@@ -32952,7 +32952,7 @@
         <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>89</v>
@@ -32961,7 +32961,7 @@
         <v>89</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>89</v>
@@ -32976,7 +32976,7 @@
         <v>89</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>89</v>
@@ -32985,13 +32985,13 @@
         <v>89</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>89</v>
@@ -33015,22 +33015,22 @@
         <v>89</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="AI20" s="5" t="s">
         <v>89</v>
@@ -33520,7 +33520,7 @@
         <v>89</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>89</v>
@@ -33535,10 +33535,10 @@
         <v>89</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>89</v>
@@ -33559,7 +33559,7 @@
         <v>89</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>89</v>
@@ -33574,7 +33574,7 @@
         <v>89</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>89</v>
@@ -33583,13 +33583,13 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="AB25" s="5" t="s">
         <v>89</v>
@@ -33619,7 +33619,7 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="AL25" s="5" t="s">
         <v>89</v>
@@ -33630,7 +33630,7 @@
         <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>89</v>
@@ -33702,7 +33702,7 @@
         <v>89</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>89</v>
@@ -33720,7 +33720,7 @@
         <v>89</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>89</v>
@@ -33732,7 +33732,7 @@
         <v>89</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="AK26" s="5" t="s">
         <v>89</v>
@@ -33862,31 +33862,31 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>89</v>
@@ -33907,13 +33907,13 @@
         <v>89</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>89</v>
@@ -33922,13 +33922,13 @@
         <v>89</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33937,10 +33937,10 @@
         <v>89</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>89</v>
@@ -33949,25 +33949,25 @@
         <v>89</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -34139,7 +34139,7 @@
         <v>89</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>89</v>
@@ -34175,10 +34175,10 @@
         <v>89</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AE30" s="5" t="s">
         <v>89</v>
@@ -34193,7 +34193,7 @@
         <v>89</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>89</v>
@@ -35138,115 +35138,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="40">
@@ -35254,115 +35254,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41">
@@ -35370,115 +35370,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>123</v>
+        <v>299</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>123</v>
+        <v>344</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>123</v>
+        <v>399</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>123</v>
+        <v>437</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>123</v>
+        <v>473</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>123</v>
+        <v>515</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>123</v>
+        <v>552</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>123</v>
+        <v>568</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>123</v>
+        <v>593</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>123</v>
+        <v>617</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>123</v>
+        <v>640</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>123</v>
+        <v>674</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>123</v>
+        <v>701</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>123</v>
+        <v>734</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>123</v>
+        <v>765</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>123</v>
+        <v>798</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>123</v>
+        <v>828</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>123</v>
+        <v>860</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>123</v>
+        <v>888</v>
       </c>
     </row>
     <row r="42">
